--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_2_1.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_2_1.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_2_1.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_2_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91989.55041322313</v>
+        <v>-276834.4728682037</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8732945.182477079</v>
+        <v>4691425.419386582</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33139445.582195</v>
+        <v>29097925.8191045</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-3.483097602143466e-10</v>
+        <v>2245007.07961794</v>
       </c>
     </row>
     <row r="11">
@@ -7978,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7993,13 +7993,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -8054,10 +8054,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8230,16 +8230,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8382,19 +8382,19 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8467,16 +8467,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,10 +8610,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8689,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,16 +8704,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8865,7 +8865,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8941,13 +8941,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9166,10 +9166,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9178,13 +9178,13 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9415,16 +9415,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9652,16 +9652,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9889,13 +9889,13 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -10032,10 +10032,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -10053,7 +10053,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10129,13 +10129,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,10 +10269,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -10281,7 +10281,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -10290,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10351,10 +10351,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10363,16 +10363,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10585,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10600,16 +10600,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10840,13 +10840,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11074,16 +11074,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11299,10 +11299,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,16 +11311,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22570,13 +22570,13 @@
         <v>256.6898085504863</v>
       </c>
       <c r="J2" t="n">
-        <v>220.8760035225573</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K2" t="n">
-        <v>268.5096182748763</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L2" t="n">
-        <v>287.6350262633844</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M2" t="n">
         <v>281.0224045372727</v>
@@ -22585,13 +22585,13 @@
         <v>279.8839375878409</v>
       </c>
       <c r="O2" t="n">
-        <v>280.7198179344578</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P2" t="n">
-        <v>282.1042548214289</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q2" t="n">
-        <v>271.2129416468284</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R2" t="n">
         <v>263.0143561332412</v>
@@ -22646,10 +22646,10 @@
         <v>127.8372169228968</v>
       </c>
       <c r="I3" t="n">
-        <v>121.4173036</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J3" t="n">
-        <v>154.7419045333334</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K3" t="n">
         <v>168.166555548718</v>
@@ -22670,10 +22670,10 @@
         <v>163.4487770454829</v>
       </c>
       <c r="Q3" t="n">
-        <v>170.7777643849463</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R3" t="n">
-        <v>177.728994836036</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S3" t="n">
         <v>195.63287444794</v>
@@ -22728,28 +22728,28 @@
         <v>170.3394424699794</v>
       </c>
       <c r="J4" t="n">
-        <v>154.9344141560632</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K4" t="n">
-        <v>157.3961749680531</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5593050631107</v>
+        <v>59.27569846418345</v>
       </c>
       <c r="M4" t="n">
-        <v>169.4894564160782</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N4" t="n">
-        <v>155.7763642475845</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O4" t="n">
-        <v>168.9169769112482</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P4" t="n">
-        <v>168.0281649399601</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q4" t="n">
-        <v>184.8361019879239</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R4" t="n">
         <v>211.6331360021768</v>
@@ -22807,13 +22807,13 @@
         <v>256.6898085504863</v>
       </c>
       <c r="J5" t="n">
-        <v>220.8760035225573</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K5" t="n">
-        <v>268.5096182748763</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L5" t="n">
-        <v>287.6350262633844</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M5" t="n">
         <v>281.0224045372727</v>
@@ -22822,16 +22822,16 @@
         <v>279.8839375878409</v>
       </c>
       <c r="O5" t="n">
-        <v>280.7198179344578</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P5" t="n">
-        <v>282.1042548214289</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q5" t="n">
-        <v>271.2129416468284</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R5" t="n">
-        <v>263.0143561332412</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S5" t="n">
         <v>236.785106778059</v>
@@ -22886,13 +22886,13 @@
         <v>121.4173036</v>
       </c>
       <c r="J6" t="n">
-        <v>154.7419045333334</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K6" t="n">
-        <v>168.166555548718</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>169.0363433314465</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>173.4035213848624</v>
@@ -22904,7 +22904,7 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P6" t="n">
-        <v>163.4487770454829</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>170.7777643849463</v>
@@ -22974,19 +22974,19 @@
         <v>164.5593050631107</v>
       </c>
       <c r="M7" t="n">
-        <v>169.4894564160782</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N7" t="n">
         <v>155.7763642475845</v>
       </c>
       <c r="O7" t="n">
-        <v>168.9169769112482</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P7" t="n">
         <v>168.0281649399601</v>
       </c>
       <c r="Q7" t="n">
-        <v>184.8361019879239</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R7" t="n">
         <v>211.6331360021768</v>
@@ -23044,13 +23044,13 @@
         <v>256.6898085504863</v>
       </c>
       <c r="J8" t="n">
-        <v>220.8760035225573</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K8" t="n">
-        <v>268.5096182748763</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L8" t="n">
-        <v>287.6350262633844</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M8" t="n">
         <v>281.0224045372727</v>
@@ -23059,16 +23059,16 @@
         <v>279.8839375878409</v>
       </c>
       <c r="O8" t="n">
-        <v>280.7198179344578</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P8" t="n">
-        <v>282.1042548214289</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q8" t="n">
-        <v>271.2129416468284</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R8" t="n">
-        <v>263.0143561332412</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S8" t="n">
         <v>236.785106778059</v>
@@ -23120,13 +23120,13 @@
         <v>127.8372169228968</v>
       </c>
       <c r="I9" t="n">
-        <v>121.4173036</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J9" t="n">
-        <v>154.7419045333334</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K9" t="n">
-        <v>168.166555548718</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>169.0363433314465</v>
@@ -23141,13 +23141,13 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P9" t="n">
-        <v>163.4487770454829</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>170.7777643849463</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R9" t="n">
-        <v>177.728994836036</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S9" t="n">
         <v>195.63287444794</v>
@@ -23202,10 +23202,10 @@
         <v>170.3394424699794</v>
       </c>
       <c r="J10" t="n">
-        <v>154.9344141560632</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K10" t="n">
-        <v>157.3961749680531</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L10" t="n">
         <v>164.5593050631107</v>
@@ -23223,7 +23223,7 @@
         <v>168.0281649399601</v>
       </c>
       <c r="Q10" t="n">
-        <v>184.8361019879239</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R10" t="n">
         <v>211.6331360021768</v>
@@ -23281,13 +23281,13 @@
         <v>256.6898085504863</v>
       </c>
       <c r="J11" t="n">
-        <v>220.8760035225573</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K11" t="n">
-        <v>268.5096182748763</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L11" t="n">
-        <v>287.6350262633844</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M11" t="n">
         <v>281.0224045372727</v>
@@ -23296,16 +23296,16 @@
         <v>279.8839375878409</v>
       </c>
       <c r="O11" t="n">
-        <v>280.7198179344578</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P11" t="n">
-        <v>282.1042548214289</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q11" t="n">
-        <v>271.2129416468284</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R11" t="n">
-        <v>263.0143561332412</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S11" t="n">
         <v>236.785106778059</v>
@@ -23357,10 +23357,10 @@
         <v>127.8372169228968</v>
       </c>
       <c r="I12" t="n">
-        <v>121.4173036</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J12" t="n">
-        <v>154.7419045333334</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K12" t="n">
         <v>168.166555548718</v>
@@ -23381,10 +23381,10 @@
         <v>163.4487770454829</v>
       </c>
       <c r="Q12" t="n">
-        <v>170.7777643849463</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R12" t="n">
-        <v>177.728994836036</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S12" t="n">
         <v>195.63287444794</v>
@@ -23457,7 +23457,7 @@
         <v>168.9169769112482</v>
       </c>
       <c r="P13" t="n">
-        <v>168.0281649399601</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q13" t="n">
         <v>184.8361019879239</v>
@@ -23518,13 +23518,13 @@
         <v>256.6898085504863</v>
       </c>
       <c r="J14" t="n">
-        <v>220.8760035225573</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K14" t="n">
-        <v>268.5096182748763</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L14" t="n">
-        <v>287.6350262633844</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M14" t="n">
         <v>281.0224045372727</v>
@@ -23533,13 +23533,13 @@
         <v>279.8839375878409</v>
       </c>
       <c r="O14" t="n">
-        <v>280.7198179344578</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P14" t="n">
-        <v>282.1042548214289</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q14" t="n">
-        <v>271.2129416468284</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R14" t="n">
         <v>263.0143561332412</v>
@@ -23594,7 +23594,7 @@
         <v>127.8372169228968</v>
       </c>
       <c r="I15" t="n">
-        <v>121.4173036</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J15" t="n">
         <v>154.7419045333334</v>
@@ -23676,28 +23676,28 @@
         <v>170.3394424699794</v>
       </c>
       <c r="J16" t="n">
-        <v>154.9344141560632</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K16" t="n">
-        <v>157.3961749680531</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L16" t="n">
-        <v>164.5593050631107</v>
+        <v>59.27569846418345</v>
       </c>
       <c r="M16" t="n">
-        <v>169.4894564160782</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N16" t="n">
-        <v>155.7763642475845</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O16" t="n">
-        <v>168.9169769112482</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P16" t="n">
-        <v>168.0281649399601</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q16" t="n">
-        <v>184.8361019879239</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R16" t="n">
         <v>211.6331360021768</v>
@@ -23758,10 +23758,10 @@
         <v>220.8760035225573</v>
       </c>
       <c r="K17" t="n">
-        <v>268.5096182748763</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L17" t="n">
-        <v>287.6350262633844</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M17" t="n">
         <v>281.0224045372727</v>
@@ -23770,13 +23770,13 @@
         <v>279.8839375878409</v>
       </c>
       <c r="O17" t="n">
-        <v>280.7198179344578</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P17" t="n">
-        <v>282.1042548214289</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q17" t="n">
-        <v>271.2129416468284</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R17" t="n">
         <v>263.0143561332412</v>
@@ -23831,7 +23831,7 @@
         <v>127.8372169228968</v>
       </c>
       <c r="I18" t="n">
-        <v>121.4173036</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J18" t="n">
         <v>154.7419045333334</v>
@@ -23855,7 +23855,7 @@
         <v>163.4487770454829</v>
       </c>
       <c r="Q18" t="n">
-        <v>170.7777643849463</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R18" t="n">
         <v>177.728994836036</v>
@@ -23913,28 +23913,28 @@
         <v>170.3394424699794</v>
       </c>
       <c r="J19" t="n">
-        <v>154.9344141560632</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K19" t="n">
-        <v>157.3961749680531</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L19" t="n">
-        <v>164.5593050631107</v>
+        <v>59.27569846418345</v>
       </c>
       <c r="M19" t="n">
-        <v>169.4894564160782</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N19" t="n">
-        <v>155.7763642475845</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O19" t="n">
-        <v>168.9169769112482</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P19" t="n">
-        <v>168.0281649399601</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q19" t="n">
-        <v>184.8361019879239</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R19" t="n">
         <v>211.6331360021768</v>
@@ -23992,13 +23992,13 @@
         <v>256.6898085504863</v>
       </c>
       <c r="J20" t="n">
-        <v>220.8760035225573</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K20" t="n">
-        <v>268.5096182748763</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L20" t="n">
-        <v>287.6350262633844</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M20" t="n">
         <v>281.0224045372727</v>
@@ -24007,16 +24007,16 @@
         <v>279.8839375878409</v>
       </c>
       <c r="O20" t="n">
-        <v>280.7198179344578</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P20" t="n">
-        <v>282.1042548214289</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q20" t="n">
-        <v>271.2129416468284</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R20" t="n">
-        <v>263.0143561332412</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S20" t="n">
         <v>236.785106778059</v>
@@ -24068,10 +24068,10 @@
         <v>127.8372169228968</v>
       </c>
       <c r="I21" t="n">
-        <v>121.4173036</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J21" t="n">
-        <v>154.7419045333334</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K21" t="n">
         <v>168.166555548718</v>
@@ -24092,10 +24092,10 @@
         <v>163.4487770454829</v>
       </c>
       <c r="Q21" t="n">
-        <v>170.7777643849463</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R21" t="n">
-        <v>177.728994836036</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S21" t="n">
         <v>195.63287444794</v>
@@ -24150,28 +24150,28 @@
         <v>170.3394424699794</v>
       </c>
       <c r="J22" t="n">
-        <v>154.9344141560632</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K22" t="n">
-        <v>157.3961749680531</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L22" t="n">
-        <v>164.5593050631107</v>
+        <v>59.27569846418345</v>
       </c>
       <c r="M22" t="n">
-        <v>169.4894564160782</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N22" t="n">
-        <v>155.7763642475845</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O22" t="n">
-        <v>168.9169769112482</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P22" t="n">
-        <v>168.0281649399601</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q22" t="n">
-        <v>184.8361019879239</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R22" t="n">
         <v>211.6331360021768</v>
@@ -24229,13 +24229,13 @@
         <v>256.6898085504863</v>
       </c>
       <c r="J23" t="n">
-        <v>220.8760035225573</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K23" t="n">
-        <v>268.5096182748763</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L23" t="n">
-        <v>287.6350262633844</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M23" t="n">
         <v>281.0224045372727</v>
@@ -24244,16 +24244,16 @@
         <v>279.8839375878409</v>
       </c>
       <c r="O23" t="n">
-        <v>280.7198179344578</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P23" t="n">
-        <v>282.1042548214289</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q23" t="n">
-        <v>271.2129416468284</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R23" t="n">
-        <v>263.0143561332412</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S23" t="n">
         <v>236.785106778059</v>
@@ -24305,13 +24305,13 @@
         <v>127.8372169228968</v>
       </c>
       <c r="I24" t="n">
-        <v>121.4173036</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J24" t="n">
-        <v>154.7419045333334</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K24" t="n">
-        <v>168.166555548718</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>169.0363433314465</v>
@@ -24329,10 +24329,10 @@
         <v>163.4487770454829</v>
       </c>
       <c r="Q24" t="n">
-        <v>170.7777643849463</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R24" t="n">
-        <v>177.728994836036</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S24" t="n">
         <v>195.63287444794</v>
@@ -24387,28 +24387,28 @@
         <v>170.3394424699794</v>
       </c>
       <c r="J25" t="n">
-        <v>154.9344141560632</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K25" t="n">
-        <v>157.3961749680531</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L25" t="n">
-        <v>164.5593050631107</v>
+        <v>59.27569846418345</v>
       </c>
       <c r="M25" t="n">
-        <v>169.4894564160782</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N25" t="n">
-        <v>155.7763642475845</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O25" t="n">
-        <v>168.9169769112482</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P25" t="n">
-        <v>168.0281649399601</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q25" t="n">
-        <v>184.8361019879239</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R25" t="n">
         <v>211.6331360021768</v>
@@ -24469,7 +24469,7 @@
         <v>220.8760035225573</v>
       </c>
       <c r="K26" t="n">
-        <v>268.5096182748763</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L26" t="n">
         <v>287.6350262633844</v>
@@ -24481,13 +24481,13 @@
         <v>279.8839375878409</v>
       </c>
       <c r="O26" t="n">
-        <v>280.7198179344578</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P26" t="n">
-        <v>282.1042548214289</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q26" t="n">
-        <v>271.2129416468284</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R26" t="n">
         <v>263.0143561332412</v>
@@ -24542,13 +24542,13 @@
         <v>127.8372169228968</v>
       </c>
       <c r="I27" t="n">
-        <v>121.4173036</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J27" t="n">
         <v>154.7419045333334</v>
       </c>
       <c r="K27" t="n">
-        <v>168.166555548718</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>169.0363433314465</v>
@@ -24624,10 +24624,10 @@
         <v>170.3394424699794</v>
       </c>
       <c r="J28" t="n">
-        <v>154.9344141560632</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K28" t="n">
-        <v>157.3961749680531</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L28" t="n">
         <v>164.5593050631107</v>
@@ -24645,7 +24645,7 @@
         <v>168.0281649399601</v>
       </c>
       <c r="Q28" t="n">
-        <v>184.8361019879239</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R28" t="n">
         <v>211.6331360021768</v>
@@ -24703,13 +24703,13 @@
         <v>256.6898085504863</v>
       </c>
       <c r="J29" t="n">
-        <v>220.8760035225573</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K29" t="n">
-        <v>268.5096182748763</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L29" t="n">
-        <v>287.6350262633844</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M29" t="n">
         <v>281.0224045372727</v>
@@ -24721,13 +24721,13 @@
         <v>280.7198179344578</v>
       </c>
       <c r="P29" t="n">
-        <v>282.1042548214289</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q29" t="n">
-        <v>271.2129416468284</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R29" t="n">
-        <v>263.0143561332412</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S29" t="n">
         <v>236.785106778059</v>
@@ -24779,7 +24779,7 @@
         <v>127.8372169228968</v>
       </c>
       <c r="I30" t="n">
-        <v>121.4173036</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J30" t="n">
         <v>154.7419045333334</v>
@@ -24806,7 +24806,7 @@
         <v>170.7777643849463</v>
       </c>
       <c r="R30" t="n">
-        <v>177.728994836036</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S30" t="n">
         <v>195.63287444794</v>
@@ -24861,10 +24861,10 @@
         <v>170.3394424699794</v>
       </c>
       <c r="J31" t="n">
-        <v>154.9344141560632</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K31" t="n">
-        <v>157.3961749680531</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L31" t="n">
         <v>164.5593050631107</v>
@@ -24873,7 +24873,7 @@
         <v>169.4894564160782</v>
       </c>
       <c r="N31" t="n">
-        <v>155.7763642475845</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O31" t="n">
         <v>168.9169769112482</v>
@@ -24882,7 +24882,7 @@
         <v>168.0281649399601</v>
       </c>
       <c r="Q31" t="n">
-        <v>184.8361019879239</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R31" t="n">
         <v>211.6331360021768</v>
@@ -24943,10 +24943,10 @@
         <v>220.8760035225573</v>
       </c>
       <c r="K32" t="n">
-        <v>268.5096182748763</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L32" t="n">
-        <v>287.6350262633844</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M32" t="n">
         <v>281.0224045372727</v>
@@ -24955,16 +24955,16 @@
         <v>279.8839375878409</v>
       </c>
       <c r="O32" t="n">
-        <v>280.7198179344578</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P32" t="n">
-        <v>282.1042548214289</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q32" t="n">
-        <v>271.2129416468284</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R32" t="n">
-        <v>263.0143561332412</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S32" t="n">
         <v>236.785106778059</v>
@@ -25016,10 +25016,10 @@
         <v>127.8372169228968</v>
       </c>
       <c r="I33" t="n">
-        <v>121.4173036</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J33" t="n">
-        <v>154.7419045333334</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K33" t="n">
         <v>168.166555548718</v>
@@ -25098,28 +25098,28 @@
         <v>170.3394424699794</v>
       </c>
       <c r="J34" t="n">
-        <v>154.9344141560632</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K34" t="n">
-        <v>157.3961749680531</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L34" t="n">
         <v>164.5593050631107</v>
       </c>
       <c r="M34" t="n">
-        <v>169.4894564160782</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N34" t="n">
-        <v>155.7763642475845</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O34" t="n">
-        <v>168.9169769112482</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P34" t="n">
-        <v>168.0281649399601</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q34" t="n">
-        <v>184.8361019879239</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R34" t="n">
         <v>211.6331360021768</v>
@@ -25177,10 +25177,10 @@
         <v>256.6898085504863</v>
       </c>
       <c r="J35" t="n">
-        <v>220.8760035225573</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K35" t="n">
-        <v>268.5096182748763</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L35" t="n">
         <v>287.6350262633844</v>
@@ -25192,16 +25192,16 @@
         <v>279.8839375878409</v>
       </c>
       <c r="O35" t="n">
-        <v>280.7198179344578</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P35" t="n">
-        <v>282.1042548214289</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q35" t="n">
-        <v>271.2129416468284</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R35" t="n">
-        <v>263.0143561332412</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S35" t="n">
         <v>236.785106778059</v>
@@ -25253,13 +25253,13 @@
         <v>127.8372169228968</v>
       </c>
       <c r="I36" t="n">
-        <v>121.4173036</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J36" t="n">
         <v>154.7419045333334</v>
       </c>
       <c r="K36" t="n">
-        <v>168.166555548718</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>169.0363433314465</v>
@@ -25277,10 +25277,10 @@
         <v>163.4487770454829</v>
       </c>
       <c r="Q36" t="n">
-        <v>170.7777643849463</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R36" t="n">
-        <v>177.728994836036</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S36" t="n">
         <v>195.63287444794</v>
@@ -25335,28 +25335,28 @@
         <v>170.3394424699794</v>
       </c>
       <c r="J37" t="n">
-        <v>154.9344141560632</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K37" t="n">
-        <v>157.3961749680531</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L37" t="n">
-        <v>164.5593050631107</v>
+        <v>59.27569846418345</v>
       </c>
       <c r="M37" t="n">
-        <v>169.4894564160782</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N37" t="n">
-        <v>155.7763642475845</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O37" t="n">
-        <v>168.9169769112482</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P37" t="n">
-        <v>168.0281649399601</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q37" t="n">
-        <v>184.8361019879239</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R37" t="n">
         <v>211.6331360021768</v>
@@ -25417,7 +25417,7 @@
         <v>220.8760035225573</v>
       </c>
       <c r="K38" t="n">
-        <v>268.5096182748763</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L38" t="n">
         <v>287.6350262633844</v>
@@ -25432,13 +25432,13 @@
         <v>280.7198179344578</v>
       </c>
       <c r="P38" t="n">
-        <v>282.1042548214289</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q38" t="n">
         <v>271.2129416468284</v>
       </c>
       <c r="R38" t="n">
-        <v>263.0143561332412</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S38" t="n">
         <v>236.785106778059</v>
@@ -25490,10 +25490,10 @@
         <v>127.8372169228968</v>
       </c>
       <c r="I39" t="n">
-        <v>121.4173036</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J39" t="n">
-        <v>154.7419045333334</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K39" t="n">
         <v>168.166555548718</v>
@@ -25572,28 +25572,28 @@
         <v>170.3394424699794</v>
       </c>
       <c r="J40" t="n">
-        <v>154.9344141560632</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K40" t="n">
-        <v>157.3961749680531</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L40" t="n">
-        <v>164.5593050631107</v>
+        <v>59.27569846418345</v>
       </c>
       <c r="M40" t="n">
-        <v>169.4894564160782</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N40" t="n">
-        <v>155.7763642475845</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O40" t="n">
-        <v>168.9169769112482</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P40" t="n">
-        <v>168.0281649399601</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q40" t="n">
-        <v>184.8361019879239</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R40" t="n">
         <v>211.6331360021768</v>
@@ -25651,13 +25651,13 @@
         <v>256.6898085504863</v>
       </c>
       <c r="J41" t="n">
-        <v>220.8760035225573</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K41" t="n">
-        <v>268.5096182748763</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L41" t="n">
-        <v>287.6350262633844</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M41" t="n">
         <v>281.0224045372727</v>
@@ -25666,16 +25666,16 @@
         <v>279.8839375878409</v>
       </c>
       <c r="O41" t="n">
-        <v>280.7198179344578</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P41" t="n">
-        <v>282.1042548214289</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q41" t="n">
-        <v>271.2129416468284</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R41" t="n">
-        <v>263.0143561332412</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S41" t="n">
         <v>236.785106778059</v>
@@ -25727,10 +25727,10 @@
         <v>127.8372169228968</v>
       </c>
       <c r="I42" t="n">
-        <v>121.4173036</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J42" t="n">
-        <v>154.7419045333334</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K42" t="n">
         <v>168.166555548718</v>
@@ -25751,10 +25751,10 @@
         <v>163.4487770454829</v>
       </c>
       <c r="Q42" t="n">
-        <v>170.7777643849463</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R42" t="n">
-        <v>177.728994836036</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S42" t="n">
         <v>195.63287444794</v>
@@ -25809,28 +25809,28 @@
         <v>170.3394424699794</v>
       </c>
       <c r="J43" t="n">
-        <v>154.9344141560632</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K43" t="n">
-        <v>157.3961749680531</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L43" t="n">
-        <v>164.5593050631107</v>
+        <v>59.27569846418345</v>
       </c>
       <c r="M43" t="n">
-        <v>169.4894564160782</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N43" t="n">
-        <v>155.7763642475845</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O43" t="n">
-        <v>168.9169769112482</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P43" t="n">
-        <v>168.0281649399601</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q43" t="n">
-        <v>184.8361019879239</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R43" t="n">
         <v>211.6331360021768</v>
@@ -25891,10 +25891,10 @@
         <v>220.8760035225573</v>
       </c>
       <c r="K44" t="n">
-        <v>268.5096182748763</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L44" t="n">
-        <v>287.6350262633844</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M44" t="n">
         <v>281.0224045372727</v>
@@ -25903,16 +25903,16 @@
         <v>279.8839375878409</v>
       </c>
       <c r="O44" t="n">
-        <v>280.7198179344578</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P44" t="n">
-        <v>282.1042548214289</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q44" t="n">
-        <v>271.2129416468284</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R44" t="n">
-        <v>263.0143561332412</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S44" t="n">
         <v>236.785106778059</v>
@@ -25964,10 +25964,10 @@
         <v>127.8372169228968</v>
       </c>
       <c r="I45" t="n">
-        <v>121.4173036</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J45" t="n">
-        <v>154.7419045333334</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K45" t="n">
         <v>168.166555548718</v>
@@ -26046,28 +26046,28 @@
         <v>170.3394424699794</v>
       </c>
       <c r="J46" t="n">
-        <v>154.9344141560632</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K46" t="n">
-        <v>157.3961749680531</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L46" t="n">
         <v>164.5593050631107</v>
       </c>
       <c r="M46" t="n">
-        <v>169.4894564160782</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N46" t="n">
-        <v>155.7763642475845</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O46" t="n">
-        <v>168.9169769112482</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P46" t="n">
-        <v>168.0281649399601</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q46" t="n">
-        <v>184.8361019879239</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R46" t="n">
         <v>211.6331360021768</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-3.012246452271938e-11</v>
+        <v>214334.9264158946</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-3.012246452271938e-11</v>
+        <v>228241.6423144851</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-3.012246452271938e-11</v>
+        <v>222925.6630183077</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-3.012246452271938e-11</v>
+        <v>196016.180933157</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-3.012246452271938e-11</v>
+        <v>195720.4856315566</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-3.012246452271938e-11</v>
+        <v>190483.8394659914</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-3.012246452271938e-11</v>
+        <v>220351.6536964718</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-3.012246452271938e-11</v>
+        <v>233007.8686670684</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-3.012246452271938e-11</v>
+        <v>132272.1870755004</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-3.012246452271938e-11</v>
+        <v>151452.3577249607</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-3.012246452271938e-11</v>
+        <v>187919.6032352324</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-3.012246452271938e-11</v>
+        <v>188619.2437854064</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-3.012246452271938e-11</v>
+        <v>99862.12289852648</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-3.012246452271938e-11</v>
+        <v>220351.6536964718</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-3.012246452271938e-11</v>
+        <v>187919.6032352324</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>3018.801780505559</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>3214.671018513876</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>3139.798070680391</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2760.791280748692</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2756.626558190939</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2682.870978394246</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3103.544418260168</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3281.800967141809</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1862.988550359161</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2133.131798943109</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2646.754975144119</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2656.609067400092</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1406.508773218682</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3103.544418260168</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2646.754975144119</v>
       </c>
     </row>
     <row r="3">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>6037.603561011118</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>6429.342037027751</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>6279.596141360781</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>5521.582561497382</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>5513.253116381878</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>5365.741956788494</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>6207.088836520335</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>6563.601934283617</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>3725.977100718322</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4266.263597886218</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>5293.509950288237</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>5313.218134800183</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>2813.017546437365</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>6207.088836520335</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>5293.509950288237</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-55720.56372146339</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-55720.56372146339</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-55720.56372146339</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
     </row>
   </sheetData>
